--- a/data/미세먼지_서울데이터.xlsx
+++ b/data/미세먼지_서울데이터.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,25 +516,17 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.033</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.017</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.003</t>
-        </is>
+      <c r="G2" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="3">
@@ -568,25 +560,17 @@
           <t>45</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.027</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.020</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.003</t>
-        </is>
+      <c r="G3" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="4">
@@ -620,25 +604,17 @@
           <t>55</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.035</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.015</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G4" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="5">
@@ -672,25 +648,17 @@
           <t>48</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.029</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.021</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G5" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="6">
@@ -724,25 +692,17 @@
           <t>46</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.028</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.019</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G6" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="7">
@@ -776,25 +736,17 @@
           <t>45</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.027</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.019</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G7" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="8">
@@ -828,25 +780,17 @@
           <t>57</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.038</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.014</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G8" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="9">
@@ -880,25 +824,17 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.032</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.014</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G9" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="10">
@@ -932,25 +868,17 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.031</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.015</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G10" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="11">
@@ -984,25 +912,17 @@
           <t>48</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.029</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.018</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G11" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="12">
@@ -1036,25 +956,17 @@
           <t>51</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.030</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.017</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="13">
@@ -1088,25 +1000,17 @@
           <t>45</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.024</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.027</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G13" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="14">
@@ -1140,25 +1044,17 @@
           <t>51</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.030</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.014</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0.003</t>
-        </is>
+      <c r="G14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="15">
@@ -1192,25 +1088,17 @@
           <t>55</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.021</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.033</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G15" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="16">
@@ -1244,25 +1132,17 @@
           <t>58</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.038</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.010</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0.003</t>
-        </is>
+      <c r="G16" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="17">
@@ -1296,25 +1176,17 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.033</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0.013</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0.003</t>
-        </is>
+      <c r="G17" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="18">
@@ -1348,25 +1220,17 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.033</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0.016</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G18" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="19">
@@ -1400,25 +1264,17 @@
           <t>55</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.035</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0.019</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G19" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="20">
@@ -1452,25 +1308,17 @@
           <t>42</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.025</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0.023</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G20" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="21">
@@ -1504,25 +1352,17 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.031</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.022</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.003</t>
-        </is>
+      <c r="G21" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="22">
@@ -1556,25 +1396,17 @@
           <t>44</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.026</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0.026</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G22" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="23">
@@ -1608,25 +1440,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.031</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0.017</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G23" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="24">
@@ -1660,25 +1484,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.031</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0.022</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G24" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="25">
@@ -1712,25 +1528,17 @@
           <t>45</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.027</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.024</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G25" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="26">
@@ -1764,25 +1572,17 @@
           <t>55</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.035</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0.018</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G26" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="27">
@@ -1816,25 +1616,17 @@
           <t>46</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.024</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0.027</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>0.003</t>
-        </is>
+      <c r="G27" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="28">
@@ -1868,25 +1660,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.032</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0.019</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G28" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="29">
@@ -1920,25 +1704,17 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.033</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0.017</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G29" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="30">
@@ -1972,25 +1748,17 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.033</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.016</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G30" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="31">
@@ -2024,25 +1792,17 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.031</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>0.015</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G31" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="32">
@@ -2076,25 +1836,17 @@
           <t>47</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.017</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0.028</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>0.003</t>
-        </is>
+      <c r="G32" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="33">
@@ -2128,25 +1880,17 @@
           <t>49</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.029</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0.019</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G33" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="34">
@@ -2180,25 +1924,17 @@
           <t>55</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.035</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0.017</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G34" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="35">
@@ -2232,25 +1968,17 @@
           <t>47</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.025</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>0.028</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G35" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="36">
@@ -2284,25 +2012,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.031</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>0.022</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G36" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="37">
@@ -2336,25 +2056,17 @@
           <t>65</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.017</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>0.039</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G37" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="38">
@@ -2388,25 +2100,17 @@
           <t>55</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.035</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>0.014</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G38" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="39">
@@ -2440,25 +2144,17 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.031</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>0.020</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>0.002</t>
-        </is>
+      <c r="G39" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="40">
@@ -2492,25 +2188,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.038</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>0.013</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>0.003</t>
-        </is>
+      <c r="G40" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="41">
@@ -2544,24 +2232,2096 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.028</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>0.032</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
+      <c r="G41" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:35:35</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>중구</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:35:46</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>한강대로</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.040</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:35:57</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:03</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>청계천로</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:11</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>종로</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:13</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>용산구</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:15</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>광진구</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.046</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:17</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>성동구</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.044</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:18</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>강변북로</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.043</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:18</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>중랑구</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.043</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.009</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:19</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>동대문구</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.044</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:20</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>홍릉로</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.039</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:20</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>성북구</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0.013</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:21</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>정릉로</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.040</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:21</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>도봉구</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:22</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>은평구</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.048</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:22</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>서대문구</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.052</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:23</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>마포구</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.053</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0.009</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:23</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>신촌로</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0.013</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:23</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>강서구</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.049</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:24</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>공항대로</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.043</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0.019</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:25</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>구로구</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.041</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:25</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>영등포구</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.045</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0.014</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:26</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>영등포로</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.040</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:27</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>동작구</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.041</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0.013</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:29</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>동작대로 중앙차로</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.033</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0.023</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:29</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>관악구</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.039</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0.013</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:31</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>강남구</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.039</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0.014</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:34</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>서초구</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0.013</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:37</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>도산대로</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:41</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>강남대로</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0.022</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:36:45</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>송파구</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.039</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0.013</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:37:00</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>강동구</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.044</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:37:00</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>천호대로</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:37:01</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>금천구</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:37:01</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>시흥대로</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0.027</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:37:02</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>강북구</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.052</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:37:02</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>양천구</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.045</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0.013</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:37:02</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>노원구</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.052</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:37:04</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-05-09 14:00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>화랑로</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
